--- a/documents/UpperRel_DeterminingParamsToFix_forModel.xlsx
+++ b/documents/UpperRel_DeterminingParamsToFix_forModel.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
